--- a/data/TopOnePercent/Northwest Normal University.xlsx
+++ b/data/TopOnePercent/Northwest Normal University.xlsx
@@ -184,13 +184,13 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1943.0</v>
+        <v>1901.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>22906.0</v>
+        <v>22090.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>11.79</v>
+        <v>11.62</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>17.0</v>
@@ -206,13 +206,13 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>518.0</v>
+        <v>523.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>8893.0</v>
+        <v>8949.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>17.17</v>
+        <v>17.11</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>8.0</v>
@@ -228,22 +228,22 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>5062.0</v>
+        <v>4950.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>49413.0</v>
+        <v>47695.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>9.76</v>
+        <v>9.64</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
